--- a/Excel/download.xlsx
+++ b/Excel/download.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
@@ -14,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>sno</t>
   </si>
@@ -37,13 +34,10 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>rainy2</t>
-  </si>
-  <si>
-    <t>Iphone2</t>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
   <si>
     <t>Red</t>
@@ -61,7 +55,10 @@
     <t>Spring</t>
   </si>
   <si>
-    <t>rEPUBLIC</t>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>9678</t>
   </si>
   <si>
     <t>All</t>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>Green</t>
-  </si>
-  <si>
-    <t>Summer</t>
   </si>
 </sst>
 </file>
@@ -452,13 +446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr customHeight="1"/>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,65 +477,65 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>299</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>69</v>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -557,27 +549,26 @@
         <v>399</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>